--- a/Data/Database.xlsx
+++ b/Data/Database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z\Downloads\UNA\Proyectos\Diferencias Morfológicas en Lactuca sativa\Datos-script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuniorPastor\Desktop\Projects_Github\Project_Lactuca_sativa\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82689830-1E67-4CCE-8839-30FA6556806D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D11B348-C69A-4D48-8417-0C4858433352}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lechuga" sheetId="1" r:id="rId1"/>
@@ -472,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -914,12 +913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E0EF7-A9AC-4E03-9168-D2D795216642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +934,7 @@
     <col min="10" max="10" width="12.7109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="13" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1048,6 +1047,7 @@
         <f>F2/L2</f>
         <v>0.13234055988213006</v>
       </c>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1106,6 +1106,7 @@
         <f t="shared" ref="P3:P66" si="7">F3/L3</f>
         <v>9.7581317764803999E-2</v>
       </c>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1164,6 +1165,7 @@
         <f t="shared" si="7"/>
         <v>0.14201819685690653</v>
       </c>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1222,6 +1224,7 @@
         <f t="shared" si="7"/>
         <v>0.15797896662094191</v>
       </c>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1280,6 +1283,7 @@
         <f t="shared" si="7"/>
         <v>0.1142598187311178</v>
       </c>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1338,6 +1342,7 @@
         <f t="shared" si="7"/>
         <v>0.10307609282245009</v>
       </c>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1396,6 +1401,7 @@
         <f t="shared" si="7"/>
         <v>0.1029985805535841</v>
       </c>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1454,6 +1460,7 @@
         <f t="shared" si="7"/>
         <v>0.13314867939459887</v>
       </c>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1512,6 +1519,7 @@
         <f t="shared" si="7"/>
         <v>0.12522686025408347</v>
       </c>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1570,6 +1578,7 @@
         <f t="shared" si="7"/>
         <v>0.14639017799447804</v>
       </c>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1628,6 +1637,7 @@
         <f t="shared" si="7"/>
         <v>0.1392189411147999</v>
       </c>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1686,6 +1696,7 @@
         <f t="shared" si="7"/>
         <v>0.10046979067554709</v>
       </c>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1744,6 +1755,7 @@
         <f t="shared" si="7"/>
         <v>0.1305204229732532</v>
       </c>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1802,6 +1814,7 @@
         <f t="shared" si="7"/>
         <v>0.13711893788846133</v>
       </c>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1860,8 +1873,9 @@
         <f t="shared" si="7"/>
         <v>0.16911441034054983</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1918,8 +1932,9 @@
         <f t="shared" si="7"/>
         <v>8.9808398885409202E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1976,8 +1991,9 @@
         <f t="shared" si="7"/>
         <v>9.6635674545386643E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -2034,8 +2050,9 @@
         <f t="shared" si="7"/>
         <v>0.14274898261774818</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -2092,8 +2109,9 @@
         <f t="shared" si="7"/>
         <v>0.1403180542563143</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2150,8 +2168,9 @@
         <f t="shared" si="7"/>
         <v>9.7543476032662529E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -2208,8 +2227,9 @@
         <f t="shared" si="7"/>
         <v>0.12330419053361472</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -2266,8 +2286,9 @@
         <f t="shared" si="7"/>
         <v>0.10417720604177205</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2324,8 +2345,9 @@
         <f t="shared" si="7"/>
         <v>0.11019473081328751</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2382,8 +2404,9 @@
         <f t="shared" si="7"/>
         <v>0.13611172688982487</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2440,8 +2463,9 @@
         <f t="shared" si="7"/>
         <v>0.12709129511677283</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2498,8 +2522,9 @@
         <f t="shared" si="7"/>
         <v>0.15801154016866403</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2556,8 +2581,9 @@
         <f t="shared" si="7"/>
         <v>0.13587745939521984</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2614,8 +2640,9 @@
         <f t="shared" si="7"/>
         <v>7.5788061703554649E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2672,8 +2699,9 @@
         <f t="shared" si="7"/>
         <v>0.1674516438794641</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2730,8 +2758,9 @@
         <f t="shared" si="7"/>
         <v>0.12735026886704987</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2788,8 +2817,9 @@
         <f t="shared" si="7"/>
         <v>0.14019042123485284</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2846,8 +2876,9 @@
         <f t="shared" si="7"/>
         <v>0.1421556789825324</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2904,8 +2935,9 @@
         <f t="shared" si="7"/>
         <v>9.5336765428406633E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2962,8 +2994,9 @@
         <f t="shared" si="7"/>
         <v>4.805698615477226E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -3020,8 +3053,9 @@
         <f t="shared" si="7"/>
         <v>0.13692824171212759</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3078,8 +3112,9 @@
         <f t="shared" si="7"/>
         <v>8.2141319427833315E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3136,8 +3171,9 @@
         <f t="shared" si="7"/>
         <v>0.10915176749122379</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -3194,8 +3230,9 @@
         <f t="shared" si="7"/>
         <v>0.11210856681979171</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -3252,8 +3289,9 @@
         <f t="shared" si="7"/>
         <v>0.13084015293677848</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3310,8 +3348,9 @@
         <f t="shared" si="7"/>
         <v>0.14408970565332502</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3368,8 +3407,9 @@
         <f t="shared" si="7"/>
         <v>0.13000067010654692</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3426,8 +3466,9 @@
         <f t="shared" si="7"/>
         <v>0.12184249628528976</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3484,8 +3525,9 @@
         <f t="shared" si="7"/>
         <v>0.13307094989894694</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3542,8 +3584,9 @@
         <f t="shared" si="7"/>
         <v>6.9699487208869274E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3643,9 @@
         <f t="shared" si="7"/>
         <v>0.12782247094943844</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -3658,8 +3702,9 @@
         <f t="shared" si="7"/>
         <v>8.5721079538699313E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -3716,8 +3761,9 @@
         <f t="shared" si="7"/>
         <v>0.11344726062467998</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3774,8 +3820,9 @@
         <f t="shared" si="7"/>
         <v>9.7392324964278423E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -3832,8 +3879,9 @@
         <f t="shared" si="7"/>
         <v>0.11914356907742947</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3890,8 +3938,9 @@
         <f t="shared" si="7"/>
         <v>0.13047250400427124</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -3948,8 +3997,9 @@
         <f t="shared" si="7"/>
         <v>9.7750011743153731E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4006,8 +4056,9 @@
         <f t="shared" si="7"/>
         <v>0.11401869158878505</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -4064,8 +4115,9 @@
         <f t="shared" si="7"/>
         <v>0.11294907463408732</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -4122,8 +4174,9 @@
         <f t="shared" si="7"/>
         <v>0.1122018034470951</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4180,8 +4233,9 @@
         <f t="shared" si="7"/>
         <v>9.6605947376615306E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4238,8 +4292,9 @@
         <f t="shared" si="7"/>
         <v>6.2190162377178143E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4296,8 +4351,9 @@
         <f t="shared" si="7"/>
         <v>0.1446876668446343</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4354,8 +4410,9 @@
         <f t="shared" si="7"/>
         <v>8.1428442356342612E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4412,8 +4469,9 @@
         <f t="shared" si="7"/>
         <v>0.10532866588875922</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4470,8 +4528,9 @@
         <f t="shared" si="7"/>
         <v>9.9526348714587876E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -4528,8 +4587,9 @@
         <f t="shared" si="7"/>
         <v>0.1235690359627489</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -4586,8 +4646,9 @@
         <f t="shared" si="7"/>
         <v>0.12468040306813057</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -4644,8 +4705,9 @@
         <f t="shared" si="7"/>
         <v>0.12083510562881042</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -4702,8 +4764,9 @@
         <f t="shared" si="7"/>
         <v>0.11054950309074142</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -4760,8 +4823,9 @@
         <f t="shared" si="7"/>
         <v>0.10676253137082006</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -4818,8 +4882,9 @@
         <f t="shared" ref="P67:P76" si="15">F67/L67</f>
         <v>8.353685758554584E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -4876,8 +4941,9 @@
         <f t="shared" si="15"/>
         <v>5.7040432000726046E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -4934,8 +5000,9 @@
         <f t="shared" si="15"/>
         <v>0.14053759039432392</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -4992,8 +5059,9 @@
         <f t="shared" si="15"/>
         <v>7.6670935810884147E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5050,8 +5118,9 @@
         <f t="shared" si="15"/>
         <v>0.10320492960170748</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5108,8 +5177,9 @@
         <f t="shared" si="15"/>
         <v>8.9307871561298907E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5166,8 +5236,9 @@
         <f t="shared" si="15"/>
         <v>0.15536567438441748</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5224,8 +5295,9 @@
         <f t="shared" si="15"/>
         <v>9.1488574599470712E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5282,8 +5354,9 @@
         <f t="shared" si="15"/>
         <v>0.12448332597616277</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5340,6 +5413,7 @@
         <f t="shared" si="15"/>
         <v>0.10290160715584322</v>
       </c>
+      <c r="Q76" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5349,7 +5423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E63CF5D-2577-4FA3-A71B-AB0F29C4A90A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
